--- a/artfynd/A 16134-2023.xlsx
+++ b/artfynd/A 16134-2023.xlsx
@@ -683,7 +683,7 @@
         <v>112491312</v>
       </c>
       <c r="B2" t="n">
-        <v>73820</v>
+        <v>73834</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -791,10 +791,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112491413</v>
+        <v>112491430</v>
       </c>
       <c r="B3" t="n">
-        <v>90816</v>
+        <v>90814</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -803,25 +803,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2059</v>
+        <v>4364</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>356670</v>
+        <v>356556</v>
       </c>
       <c r="R3" t="n">
-        <v>6742658</v>
+        <v>6742347</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -897,10 +897,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112491430</v>
+        <v>112491413</v>
       </c>
       <c r="B4" t="n">
-        <v>90800</v>
+        <v>90830</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -909,25 +909,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4364</v>
+        <v>2059</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -940,10 +940,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>356556</v>
+        <v>356670</v>
       </c>
       <c r="R4" t="n">
-        <v>6742347</v>
+        <v>6742658</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1006,7 +1006,7 @@
         <v>112491434</v>
       </c>
       <c r="B5" t="n">
-        <v>90843</v>
+        <v>90857</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>

--- a/artfynd/A 16134-2023.xlsx
+++ b/artfynd/A 16134-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112491312</v>
+        <v>112491413</v>
       </c>
       <c r="B2" t="n">
-        <v>73834</v>
+        <v>90830</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6440</v>
+        <v>2059</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -719,14 +719,14 @@
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Kobäcken, Vrm</t>
+          <t>Älggropsröset, Vrm</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>356888</v>
+        <v>356670</v>
       </c>
       <c r="R2" t="n">
-        <v>6742975</v>
+        <v>6742658</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -759,11 +759,6 @@
       <c r="AA2" t="inlineStr">
         <is>
           <t>2023-10-02</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>På gammal senvuxen gran</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -791,10 +786,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112491430</v>
+        <v>112491434</v>
       </c>
       <c r="B3" t="n">
-        <v>90814</v>
+        <v>90857</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -803,25 +798,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4364</v>
+        <v>5448</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -897,10 +892,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112491413</v>
+        <v>112491312</v>
       </c>
       <c r="B4" t="n">
-        <v>90830</v>
+        <v>73834</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -913,21 +908,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2059</v>
+        <v>6440</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -936,14 +931,14 @@
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Älggropsröset, Vrm</t>
+          <t>Kobäcken, Vrm</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>356670</v>
+        <v>356888</v>
       </c>
       <c r="R4" t="n">
-        <v>6742658</v>
+        <v>6742975</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -976,6 +971,11 @@
       <c r="AA4" t="inlineStr">
         <is>
           <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>På gammal senvuxen gran</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1003,10 +1003,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112491434</v>
+        <v>112491430</v>
       </c>
       <c r="B5" t="n">
-        <v>90857</v>
+        <v>90814</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1015,25 +1015,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5448</v>
+        <v>4364</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
